--- a/BASE DE DADOS TRAB 2 - MÉTODOS ECONOMÉTRICOS.xlsx
+++ b/BASE DE DADOS TRAB 2 - MÉTODOS ECONOMÉTRICOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thais\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{411A30CE-6C59-4D32-968C-8B3A86B1195A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{787197C6-45A5-4F3B-844B-8DE439E66724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MULTIMERCADO JUROS E MOEDA" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>IBOVESPA</t>
   </si>
   <si>
-    <t>IPCA MENSAL</t>
-  </si>
-  <si>
     <t>DATAS</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>PATRIMÔNIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPCA MENSAL </t>
   </si>
   <si>
     <t>FUNDO DE INVESTIMENTO ANALISADO</t>
@@ -86,6 +80,12 @@
   <si>
     <t>RETORNO_BRADESCO_MODERADO</t>
   </si>
+  <si>
+    <t>IPCA_MENSAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPCA_MENSAL </t>
+  </si>
 </sst>
 </file>
 
@@ -93,7 +93,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -229,12 +229,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -280,12 +280,6 @@
     <xf numFmtId="8" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -302,10 +296,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -651,31 +641,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
@@ -692,13 +682,13 @@
         <v>37953</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="13">
         <v>37953</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" s="14">
         <v>1.02</v>
@@ -709,7 +699,7 @@
       <c r="J2" s="15">
         <v>276095204.54000002</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="14">
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
@@ -727,13 +717,13 @@
         <v>37986</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="17">
         <v>37986</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" s="18">
         <v>1.03</v>
@@ -744,7 +734,7 @@
       <c r="J3" s="19">
         <v>276687415.04000002</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="18">
         <v>1.4500000000000001E-2</v>
       </c>
     </row>
@@ -762,13 +752,13 @@
         <v>38016</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="13">
         <v>38016</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="14">
         <v>1.05</v>
@@ -779,7 +769,7 @@
       <c r="J4" s="15">
         <v>280062047.27999997</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="14">
         <v>1.78E-2</v>
       </c>
     </row>
@@ -797,13 +787,13 @@
         <v>38044</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="17">
         <v>38044</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" s="18">
         <v>1.06</v>
@@ -814,7 +804,7 @@
       <c r="J5" s="19">
         <v>281339385.63999999</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="18">
         <v>1.06E-2</v>
       </c>
     </row>
@@ -832,13 +822,13 @@
         <v>38077</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="13">
         <v>38077</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" s="14">
         <v>1.08</v>
@@ -849,7 +839,7 @@
       <c r="J6" s="15">
         <v>284739137.17000002</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="14">
         <v>1.8200000000000001E-2</v>
       </c>
     </row>
@@ -867,13 +857,13 @@
         <v>38107</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" s="17">
         <v>38107</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="18">
         <v>1.1000000000000001</v>
@@ -884,7 +874,7 @@
       <c r="J7" s="19">
         <v>291260975.89999998</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="18">
         <v>1.89E-2</v>
       </c>
     </row>
@@ -902,13 +892,13 @@
         <v>38138</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" s="13">
         <v>38138</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H8" s="14">
         <v>1.1299999999999999</v>
@@ -919,7 +909,7 @@
       <c r="J8" s="15">
         <v>297029975.41000003</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="14">
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
@@ -937,13 +927,13 @@
         <v>38168</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" s="17">
         <v>38168</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H9" s="18">
         <v>1.1499999999999999</v>
@@ -954,7 +944,7 @@
       <c r="J9" s="19">
         <v>301553209.99000001</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="18">
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
@@ -972,13 +962,13 @@
         <v>38198</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="13">
         <v>38198</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="14">
         <v>1.17</v>
@@ -989,7 +979,7 @@
       <c r="J10" s="15">
         <v>305102651.31</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="14">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
@@ -1007,13 +997,13 @@
         <v>38230</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" s="17">
         <v>38230</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H11" s="18">
         <v>1.18</v>
@@ -1024,7 +1014,7 @@
       <c r="J11" s="19">
         <v>308493910.50999999</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="18">
         <v>1.4E-2</v>
       </c>
     </row>
@@ -1042,13 +1032,13 @@
         <v>38260</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F12" s="13">
         <v>38260</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H12" s="14">
         <v>1.2</v>
@@ -1059,7 +1049,7 @@
       <c r="J12" s="15">
         <v>311390849.14999998</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="14">
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
@@ -1077,13 +1067,13 @@
         <v>38289</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13" s="17">
         <v>38289</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H13" s="18">
         <v>1.21</v>
@@ -1094,7 +1084,7 @@
       <c r="J13" s="19">
         <v>312907335.66000003</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="18">
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
@@ -1112,13 +1102,13 @@
         <v>38321</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F14" s="13">
         <v>38321</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H14" s="14">
         <v>1.22</v>
@@ -1129,7 +1119,7 @@
       <c r="J14" s="15">
         <v>315704354.05000001</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="14">
         <v>1.1900000000000001E-2</v>
       </c>
     </row>
@@ -1147,13 +1137,13 @@
         <v>38352</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" s="17">
         <v>38352</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H15" s="18">
         <v>1.24</v>
@@ -1164,7 +1154,7 @@
       <c r="J15" s="19">
         <v>317188122.01999998</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="18">
         <v>1.32E-2</v>
       </c>
     </row>
@@ -1182,13 +1172,13 @@
         <v>38383</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F16" s="13">
         <v>38383</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="14">
         <v>1.25</v>
@@ -1199,7 +1189,7 @@
       <c r="J16" s="15">
         <v>318725069.39999998</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="14">
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
@@ -1217,13 +1207,13 @@
         <v>38411</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" s="17">
         <v>38411</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H17" s="18">
         <v>1.26</v>
@@ -1234,7 +1224,7 @@
       <c r="J17" s="19">
         <v>320045999.60000002</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="18">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -1252,13 +1242,13 @@
         <v>38442</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F18" s="13">
         <v>38442</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H18" s="14">
         <v>1.27</v>
@@ -1269,7 +1259,7 @@
       <c r="J18" s="15">
         <v>323555827.24000001</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="14">
         <v>1.44E-2</v>
       </c>
     </row>
@@ -1287,13 +1277,13 @@
         <v>38471</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F19" s="17">
         <v>38471</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H19" s="18">
         <v>1.29</v>
@@ -1304,7 +1294,7 @@
       <c r="J19" s="19">
         <v>326423334.60000002</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="18">
         <v>1.4E-2</v>
       </c>
     </row>
@@ -1322,13 +1312,13 @@
         <v>38503</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F20" s="13">
         <v>38503</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H20" s="14">
         <v>1.3</v>
@@ -1339,7 +1329,7 @@
       <c r="J20" s="15">
         <v>326651076.61000001</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="14">
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
@@ -1357,13 +1347,13 @@
         <v>38533</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F21" s="17">
         <v>38533</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H21" s="18">
         <v>1.3</v>
@@ -1374,7 +1364,7 @@
       <c r="J21" s="19">
         <v>327340679.80000001</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="18">
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
@@ -1392,13 +1382,13 @@
         <v>38562</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F22" s="13">
         <v>38562</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H22" s="14">
         <v>1.3</v>
@@ -1409,7 +1399,7 @@
       <c r="J22" s="15">
         <v>327261682.12</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="14">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
@@ -1427,13 +1417,13 @@
         <v>38595</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F23" s="17">
         <v>38595</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H23" s="18">
         <v>1.3</v>
@@ -1444,7 +1434,7 @@
       <c r="J23" s="19">
         <v>326280306.06</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="18">
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
@@ -1462,13 +1452,13 @@
         <v>38625</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F24" s="13">
         <v>38625</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H24" s="14">
         <v>1.3</v>
@@ -1479,7 +1469,7 @@
       <c r="J24" s="15">
         <v>325418376.51999998</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="14">
         <v>0</v>
       </c>
     </row>
@@ -1497,13 +1487,13 @@
         <v>38656</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F25" s="17">
         <v>38656</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H25" s="18">
         <v>1.32</v>
@@ -1514,7 +1504,7 @@
       <c r="J25" s="19">
         <v>327574628.47000003</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="18">
         <v>9.9000000000000008E-3</v>
       </c>
     </row>
@@ -1532,13 +1522,13 @@
         <v>38686</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F26" s="13">
         <v>38686</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H26" s="14">
         <v>1.33</v>
@@ -1549,7 +1539,7 @@
       <c r="J26" s="15">
         <v>329766670.39999998</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="14">
         <v>1.03E-2</v>
       </c>
     </row>
@@ -1567,13 +1557,13 @@
         <v>38716</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F27" s="17">
         <v>38716</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H27" s="18">
         <v>1.34</v>
@@ -1584,7 +1574,7 @@
       <c r="J27" s="19">
         <v>328478161.31</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="18">
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
@@ -1602,13 +1592,13 @@
         <v>38748</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F28" s="13">
         <v>38748</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H28" s="14">
         <v>1.36</v>
@@ -1619,7 +1609,7 @@
       <c r="J28" s="15">
         <v>332513938.05000001</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="14">
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
@@ -1637,13 +1627,13 @@
         <v>38772</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F29" s="17">
         <v>38772</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H29" s="18">
         <v>1.37</v>
@@ -1654,7 +1644,7 @@
       <c r="J29" s="19">
         <v>333549329.70999998</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="18">
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
@@ -1672,13 +1662,13 @@
         <v>38807</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F30" s="13">
         <v>38807</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H30" s="14">
         <v>1.37</v>
@@ -1689,7 +1679,7 @@
       <c r="J30" s="15">
         <v>333946112.22000003</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="14">
         <v>4.3E-3</v>
       </c>
     </row>
@@ -1707,13 +1697,13 @@
         <v>38835</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F31" s="17">
         <v>38835</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H31" s="18">
         <v>1.37</v>
@@ -1724,7 +1714,7 @@
       <c r="J31" s="19">
         <v>333412804.72000003</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="18">
         <v>1.5E-3</v>
       </c>
     </row>
@@ -1742,13 +1732,13 @@
         <v>38868</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F32" s="13">
         <v>38868</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H32" s="14">
         <v>1.4</v>
@@ -1759,7 +1749,7 @@
       <c r="J32" s="15">
         <v>337867597.55000001</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="14">
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
@@ -1777,13 +1767,13 @@
         <v>38898</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F33" s="17">
         <v>38898</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H33" s="18">
         <v>1.41</v>
@@ -1794,7 +1784,7 @@
       <c r="J33" s="19">
         <v>339228011.18000001</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="18">
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
@@ -1812,13 +1802,13 @@
         <v>38929</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F34" s="13">
         <v>38929</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H34" s="14">
         <v>1.42</v>
@@ -1829,7 +1819,7 @@
       <c r="J34" s="15">
         <v>340977461.81999999</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="14">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
@@ -1847,13 +1837,13 @@
         <v>38960</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F35" s="17">
         <v>38960</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H35" s="18">
         <v>1.43</v>
@@ -1864,7 +1854,7 @@
       <c r="J35" s="19">
         <v>343905018.38999999</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="18">
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
@@ -1882,13 +1872,13 @@
         <v>38989</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F36" s="13">
         <v>38989</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H36" s="14">
         <v>1.44</v>
@@ -1899,7 +1889,7 @@
       <c r="J36" s="15">
         <v>349828561.33999997</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="14">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
@@ -1917,13 +1907,13 @@
         <v>39021</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F37" s="17">
         <v>39021</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H37" s="18">
         <v>1.46</v>
@@ -1934,7 +1924,7 @@
       <c r="J37" s="19">
         <v>353669536.98000002</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="18">
         <v>1.15E-2</v>
       </c>
     </row>
@@ -1952,13 +1942,13 @@
         <v>39051</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F38" s="13">
         <v>39051</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H38" s="14">
         <v>1.48</v>
@@ -1969,7 +1959,7 @@
       <c r="J38" s="15">
         <v>359530163.80000001</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="14">
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
@@ -1987,13 +1977,13 @@
         <v>39080</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F39" s="17">
         <v>39080</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H39" s="18">
         <v>1.5</v>
@@ -2004,7 +1994,7 @@
       <c r="J39" s="19">
         <v>362822602.67000002</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="18">
         <v>1.52E-2</v>
       </c>
     </row>
@@ -2022,13 +2012,13 @@
         <v>39113</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F40" s="13">
         <v>39113</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H40" s="14">
         <v>1.52</v>
@@ -2039,7 +2029,7 @@
       <c r="J40" s="15">
         <v>366773666.29000002</v>
       </c>
-      <c r="K40" s="20">
+      <c r="K40" s="14">
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
@@ -2057,13 +2047,13 @@
         <v>39141</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F41" s="17">
         <v>39141</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H41" s="18">
         <v>1.54</v>
@@ -2074,7 +2064,7 @@
       <c r="J41" s="19">
         <v>369723818.36000001</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K41" s="18">
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
@@ -2092,13 +2082,13 @@
         <v>39171</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F42" s="13">
         <v>39171</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H42" s="14">
         <v>1.55</v>
@@ -2109,7 +2099,7 @@
       <c r="J42" s="15">
         <v>373299278.79000002</v>
       </c>
-      <c r="K42" s="20">
+      <c r="K42" s="14">
         <v>1.06E-2</v>
       </c>
     </row>
@@ -2127,13 +2117,13 @@
         <v>39202</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F43" s="17">
         <v>39202</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H43" s="18">
         <v>1.57</v>
@@ -2144,7 +2134,7 @@
       <c r="J43" s="19">
         <v>377963573.30000001</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="18">
         <v>1.3599999999999999E-2</v>
       </c>
     </row>
@@ -2162,13 +2152,13 @@
         <v>39233</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F44" s="13">
         <v>39233</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H44" s="14">
         <v>1.6</v>
@@ -2179,7 +2169,7 @@
       <c r="J44" s="15">
         <v>385117508.50999999</v>
       </c>
-      <c r="K44" s="20">
+      <c r="K44" s="14">
         <v>1.9699999999999999E-2</v>
       </c>
     </row>
@@ -2197,13 +2187,13 @@
         <v>39262</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F45" s="17">
         <v>39262</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H45" s="18">
         <v>1.62</v>
@@ -2214,7 +2204,7 @@
       <c r="J45" s="19">
         <v>388221417.56</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="18">
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
@@ -2232,13 +2222,13 @@
         <v>39294</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F46" s="13">
         <v>39294</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H46" s="14">
         <v>1.63</v>
@@ -2249,7 +2239,7 @@
       <c r="J46" s="15">
         <v>390097285.43000001</v>
       </c>
-      <c r="K46" s="20">
+      <c r="K46" s="14">
         <v>5.3E-3</v>
       </c>
     </row>
@@ -2267,13 +2257,13 @@
         <v>39325</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F47" s="17">
         <v>39325</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H47" s="18">
         <v>1.63</v>
@@ -2284,7 +2274,7 @@
       <c r="J47" s="19">
         <v>391990109.76999998</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47" s="18">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -2302,13 +2292,13 @@
         <v>39353</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F48" s="13">
         <v>39353</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H48" s="14">
         <v>1.67</v>
@@ -2319,7 +2309,7 @@
       <c r="J48" s="15">
         <v>399905085.19999999</v>
       </c>
-      <c r="K48" s="20">
+      <c r="K48" s="14">
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
@@ -2337,13 +2327,13 @@
         <v>39386</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F49" s="17">
         <v>39386</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H49" s="18">
         <v>1.69</v>
@@ -2354,7 +2344,7 @@
       <c r="J49" s="19">
         <v>405269485.91000003</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="18">
         <v>1.37E-2</v>
       </c>
     </row>
@@ -2372,13 +2362,13 @@
         <v>39416</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F50" s="13">
         <v>39416</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H50" s="14">
         <v>1.71</v>
@@ -2389,7 +2379,7 @@
       <c r="J50" s="15">
         <v>408822367.19999999</v>
       </c>
-      <c r="K50" s="20">
+      <c r="K50" s="14">
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
@@ -2407,13 +2397,13 @@
         <v>39447</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F51" s="17">
         <v>39447</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H51" s="18">
         <v>1.74</v>
@@ -2424,7 +2414,7 @@
       <c r="J51" s="19">
         <v>415013122.50999999</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K51" s="18">
         <v>2.01E-2</v>
       </c>
     </row>
@@ -2442,13 +2432,13 @@
         <v>39478</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F52" s="13">
         <v>39478</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H52" s="14">
         <v>1.77</v>
@@ -2459,7 +2449,7 @@
       <c r="J52" s="15">
         <v>421351977.10000002</v>
       </c>
-      <c r="K52" s="20">
+      <c r="K52" s="14">
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
@@ -2477,13 +2467,13 @@
         <v>39507</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F53" s="17">
         <v>39507</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H53" s="18">
         <v>1.79</v>
@@ -2494,7 +2484,7 @@
       <c r="J53" s="19">
         <v>425178121.73000002</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K53" s="18">
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
@@ -2512,13 +2502,13 @@
         <v>39538</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F54" s="13">
         <v>39538</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H54" s="14">
         <v>1.81</v>
@@ -2529,7 +2519,7 @@
       <c r="J54" s="15">
         <v>429286161.05000001</v>
       </c>
-      <c r="K54" s="20">
+      <c r="K54" s="14">
         <v>1.14E-2</v>
       </c>
     </row>
@@ -2547,13 +2537,13 @@
         <v>39568</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F55" s="17">
         <v>39568</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H55" s="18">
         <v>1.83</v>
@@ -2564,7 +2554,7 @@
       <c r="J55" s="19">
         <v>433423591.50999999</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="18">
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
@@ -2582,13 +2572,13 @@
         <v>39598</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F56" s="13">
         <v>39598</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H56" s="14">
         <v>1.87</v>
@@ -2599,7 +2589,7 @@
       <c r="J56" s="15">
         <v>441721900.93000001</v>
       </c>
-      <c r="K56" s="20">
+      <c r="K56" s="14">
         <v>2.0799999999999999E-2</v>
       </c>
     </row>
@@ -2617,13 +2607,13 @@
         <v>39629</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F57" s="17">
         <v>39629</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H57" s="18">
         <v>1.91</v>
@@ -2634,7 +2624,7 @@
       <c r="J57" s="19">
         <v>451364822.76999998</v>
       </c>
-      <c r="K57" s="21">
+      <c r="K57" s="18">
         <v>2.3599999999999999E-2</v>
       </c>
     </row>
@@ -2652,13 +2642,13 @@
         <v>39660</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F58" s="13">
         <v>39660</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H58" s="14">
         <v>1.95</v>
@@ -2669,7 +2659,7 @@
       <c r="J58" s="15">
         <v>459030774.42000002</v>
       </c>
-      <c r="K58" s="20">
+      <c r="K58" s="14">
         <v>1.8599999999999998E-2</v>
       </c>
     </row>
@@ -2687,13 +2677,13 @@
         <v>39689</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F59" s="17">
         <v>39689</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H59" s="18">
         <v>1.94</v>
@@ -2704,7 +2694,7 @@
       <c r="J59" s="19">
         <v>458037320.76999998</v>
       </c>
-      <c r="K59" s="21">
+      <c r="K59" s="18">
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
@@ -2722,13 +2712,13 @@
         <v>39721</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F60" s="13">
         <v>39721</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H60" s="14">
         <v>1.95</v>
@@ -2739,7 +2729,7 @@
       <c r="J60" s="15">
         <v>458072400.31999999</v>
       </c>
-      <c r="K60" s="20">
+      <c r="K60" s="14">
         <v>1.9E-3</v>
       </c>
     </row>
@@ -2757,13 +2747,13 @@
         <v>39752</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F61" s="17">
         <v>39752</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H61" s="18">
         <v>1.97</v>
@@ -2774,7 +2764,7 @@
       <c r="J61" s="19">
         <v>462658913.60000002</v>
       </c>
-      <c r="K61" s="21">
+      <c r="K61" s="18">
         <v>1.14E-2</v>
       </c>
     </row>
@@ -2792,13 +2782,13 @@
         <v>39780</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F62" s="13">
         <v>39780</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H62" s="14">
         <v>1.99</v>
@@ -2809,7 +2799,7 @@
       <c r="J62" s="15">
         <v>466332938.69999999</v>
       </c>
-      <c r="K62" s="20">
+      <c r="K62" s="14">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
@@ -2827,13 +2817,13 @@
         <v>39813</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F63" s="17">
         <v>39813</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H63" s="18">
         <v>2</v>
@@ -2844,7 +2834,7 @@
       <c r="J63" s="19">
         <v>466575514.80000001</v>
       </c>
-      <c r="K63" s="21">
+      <c r="K63" s="18">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
@@ -2862,13 +2852,13 @@
         <v>39843</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F64" s="13">
         <v>39843</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H64" s="14">
         <v>2.0099999999999998</v>
@@ -2879,7 +2869,7 @@
       <c r="J64" s="15">
         <v>466609469.5</v>
       </c>
-      <c r="K64" s="20">
+      <c r="K64" s="14">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
@@ -2897,13 +2887,13 @@
         <v>39871</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F65" s="17">
         <v>39871</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H65" s="18">
         <v>2.02</v>
@@ -2914,7 +2904,7 @@
       <c r="J65" s="19">
         <v>469153576.5</v>
       </c>
-      <c r="K65" s="21">
+      <c r="K65" s="18">
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
@@ -2932,13 +2922,13 @@
         <v>39903</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F66" s="13">
         <v>39903</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H66" s="14">
         <v>2.02</v>
@@ -2949,7 +2939,7 @@
       <c r="J66" s="15">
         <v>468105319.11000001</v>
       </c>
-      <c r="K66" s="20">
+      <c r="K66" s="14">
         <v>-6.9999999999999999E-4</v>
       </c>
     </row>
@@ -2967,13 +2957,13 @@
         <v>39933</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F67" s="17">
         <v>39933</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H67" s="18">
         <v>2.0299999999999998</v>
@@ -2984,7 +2974,7 @@
       <c r="J67" s="19">
         <v>468786802.58999997</v>
       </c>
-      <c r="K67" s="21">
+      <c r="K67" s="18">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
@@ -3002,13 +2992,13 @@
         <v>39962</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F68" s="13">
         <v>39962</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H68" s="14">
         <v>2.04</v>
@@ -3019,7 +3009,7 @@
       <c r="J68" s="15">
         <v>469859800.64999998</v>
       </c>
-      <c r="K68" s="20">
+      <c r="K68" s="14">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -3037,13 +3027,13 @@
         <v>39994</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F69" s="17">
         <v>39994</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H69" s="18">
         <v>2.0499999999999998</v>
@@ -3054,7 +3044,7 @@
       <c r="J69" s="19">
         <v>470867396.47000003</v>
       </c>
-      <c r="K69" s="21">
+      <c r="K69" s="18">
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
@@ -3072,13 +3062,13 @@
         <v>40025</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F70" s="13">
         <v>40025</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H70" s="14">
         <v>2.0499999999999998</v>
@@ -3089,7 +3079,7 @@
       <c r="J70" s="15">
         <v>470709502.97000003</v>
       </c>
-      <c r="K70" s="20">
+      <c r="K70" s="14">
         <v>2E-3</v>
       </c>
     </row>
@@ -3107,13 +3097,13 @@
         <v>40056</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F71" s="17">
         <v>40056</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H71" s="18">
         <v>2.0499999999999998</v>
@@ -3124,7 +3114,7 @@
       <c r="J71" s="19">
         <v>470550507.10000002</v>
       </c>
-      <c r="K71" s="21">
+      <c r="K71" s="18">
         <v>2E-3</v>
       </c>
     </row>
@@ -3142,13 +3132,13 @@
         <v>40086</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F72" s="13">
         <v>40086</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H72" s="14">
         <v>2.0699999999999998</v>
@@ -3159,7 +3149,7 @@
       <c r="J72" s="15">
         <v>473580302.38999999</v>
       </c>
-      <c r="K72" s="20">
+      <c r="K72" s="14">
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
@@ -3177,13 +3167,13 @@
         <v>40116</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F73" s="17">
         <v>40116</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H73" s="18">
         <v>2.08</v>
@@ -3194,7 +3184,7 @@
       <c r="J73" s="19">
         <v>475318597.54000002</v>
       </c>
-      <c r="K73" s="21">
+      <c r="K73" s="18">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -3212,13 +3202,13 @@
         <v>40147</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F74" s="13">
         <v>40147</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H74" s="14">
         <v>2.1</v>
@@ -3229,7 +3219,7 @@
       <c r="J74" s="15">
         <v>477144660.70999998</v>
       </c>
-      <c r="K74" s="20">
+      <c r="K74" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -3247,13 +3237,13 @@
         <v>40178</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F75" s="17">
         <v>40178</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H75" s="18">
         <v>2.11</v>
@@ -3264,7 +3254,7 @@
       <c r="J75" s="19">
         <v>476202450.86000001</v>
       </c>
-      <c r="K75" s="21">
+      <c r="K75" s="18">
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
@@ -3282,13 +3272,13 @@
         <v>40207</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F76" s="13">
         <v>40207</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H76" s="14">
         <v>2.13</v>
@@ -3299,7 +3289,7 @@
       <c r="J76" s="15">
         <v>479893005.52999997</v>
       </c>
-      <c r="K76" s="20">
+      <c r="K76" s="14">
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
@@ -3317,13 +3307,13 @@
         <v>40235</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F77" s="17">
         <v>40235</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H77" s="18">
         <v>2.16</v>
@@ -3334,7 +3324,7 @@
       <c r="J77" s="19">
         <v>485945303.11000001</v>
       </c>
-      <c r="K77" s="21">
+      <c r="K77" s="18">
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
@@ -3352,13 +3342,13 @@
         <v>40268</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F78" s="13">
         <v>40268</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H78" s="14">
         <v>2.19</v>
@@ -3369,7 +3359,7 @@
       <c r="J78" s="15">
         <v>491958685.74000001</v>
       </c>
-      <c r="K78" s="20">
+      <c r="K78" s="14">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -3387,13 +3377,13 @@
         <v>40298</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F79" s="17">
         <v>40298</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H79" s="18">
         <v>2.2200000000000002</v>
@@ -3404,7 +3394,7 @@
       <c r="J79" s="19">
         <v>496719543.44</v>
       </c>
-      <c r="K79" s="21">
+      <c r="K79" s="18">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -3422,13 +3412,13 @@
         <v>40329</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F80" s="13">
         <v>40329</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H80" s="14">
         <v>2.2599999999999998</v>
@@ -3439,7 +3429,7 @@
       <c r="J80" s="15">
         <v>504068763.68000001</v>
       </c>
-      <c r="K80" s="20">
+      <c r="K80" s="14">
         <v>1.61E-2</v>
       </c>
     </row>
@@ -3457,13 +3447,13 @@
         <v>40359</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F81" s="17">
         <v>40359</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H81" s="18">
         <v>2.29</v>
@@ -3474,7 +3464,7 @@
       <c r="J81" s="19">
         <v>512198134.19</v>
       </c>
-      <c r="K81" s="21">
+      <c r="K81" s="18">
         <v>1.32E-2</v>
       </c>
     </row>
@@ -3492,13 +3482,13 @@
         <v>40389</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F82" s="13">
         <v>40389</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H82" s="14">
         <v>2.2999999999999998</v>
@@ -3509,7 +3499,7 @@
       <c r="J82" s="15">
         <v>515033014.91000003</v>
       </c>
-      <c r="K82" s="20">
+      <c r="K82" s="14">
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
@@ -3527,13 +3517,13 @@
         <v>40421</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F83" s="17">
         <v>40421</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H83" s="18">
         <v>2.33</v>
@@ -3544,7 +3534,7 @@
       <c r="J83" s="19">
         <v>519913688.50999999</v>
       </c>
-      <c r="K83" s="21">
+      <c r="K83" s="18">
         <v>1.12E-2</v>
       </c>
     </row>
@@ -3562,13 +3552,13 @@
         <v>40451</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F84" s="13">
         <v>40451</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H84" s="14">
         <v>2.37</v>
@@ -3579,7 +3569,7 @@
       <c r="J84" s="15">
         <v>527357750.49000001</v>
       </c>
-      <c r="K84" s="20">
+      <c r="K84" s="14">
         <v>1.61E-2</v>
       </c>
     </row>
@@ -3597,13 +3587,13 @@
         <v>40480</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F85" s="17">
         <v>40480</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H85" s="18">
         <v>2.4</v>
@@ -3614,7 +3604,7 @@
       <c r="J85" s="19">
         <v>534020840.97000003</v>
       </c>
-      <c r="K85" s="21">
+      <c r="K85" s="18">
         <v>1.4200000000000001E-2</v>
       </c>
     </row>
@@ -3632,13 +3622,13 @@
         <v>40512</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F86" s="13">
         <v>40512</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H86" s="14">
         <v>2.44</v>
@@ -3649,7 +3639,7 @@
       <c r="J86" s="15">
         <v>542694342.40999997</v>
       </c>
-      <c r="K86" s="20">
+      <c r="K86" s="14">
         <v>1.78E-2</v>
       </c>
     </row>
@@ -3667,13 +3657,13 @@
         <v>40543</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F87" s="17">
         <v>40543</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H87" s="18">
         <v>2.48</v>
@@ -3684,7 +3674,7 @@
       <c r="J87" s="19">
         <v>546286903.26999998</v>
       </c>
-      <c r="K87" s="21">
+      <c r="K87" s="18">
         <v>1.3299999999999999E-2</v>
       </c>
     </row>
@@ -3702,13 +3692,13 @@
         <v>40574</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F88" s="13">
         <v>40574</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H88" s="14">
         <v>2.5099999999999998</v>
@@ -3719,7 +3709,7 @@
       <c r="J88" s="15">
         <v>551702544.96000004</v>
       </c>
-      <c r="K88" s="20">
+      <c r="K88" s="14">
         <v>1.21E-2</v>
       </c>
     </row>
@@ -3737,13 +3727,13 @@
         <v>40602</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F89" s="17">
         <v>40602</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H89" s="18">
         <v>2.54</v>
@@ -3754,7 +3744,7 @@
       <c r="J89" s="19">
         <v>558578324.70000005</v>
       </c>
-      <c r="K89" s="21">
+      <c r="K89" s="18">
         <v>1.4200000000000001E-2</v>
       </c>
     </row>
@@ -3772,13 +3762,13 @@
         <v>40633</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F90" s="13">
         <v>40633</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H90" s="14">
         <v>2.57</v>
@@ -3789,7 +3779,7 @@
       <c r="J90" s="15">
         <v>564261745.20000005</v>
       </c>
-      <c r="K90" s="20">
+      <c r="K90" s="14">
         <v>1.15E-2</v>
       </c>
     </row>
@@ -3807,13 +3797,13 @@
         <v>40662</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F91" s="17">
         <v>40662</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H91" s="18">
         <v>2.59</v>
@@ -3824,7 +3814,7 @@
       <c r="J91" s="19">
         <v>569744555.24000001</v>
       </c>
-      <c r="K91" s="21">
+      <c r="K91" s="18">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
@@ -3842,13 +3832,13 @@
         <v>40694</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F92" s="13">
         <v>40694</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H92" s="14">
         <v>2.62</v>
@@ -3859,7 +3849,7 @@
       <c r="J92" s="15">
         <v>575120289.12</v>
       </c>
-      <c r="K92" s="20">
+      <c r="K92" s="14">
         <v>1.01E-2</v>
       </c>
     </row>
@@ -3877,13 +3867,13 @@
         <v>40724</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F93" s="17">
         <v>40724</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H93" s="18">
         <v>2.63</v>
@@ -3894,7 +3884,7 @@
       <c r="J93" s="19">
         <v>577114603.92999995</v>
       </c>
-      <c r="K93" s="21">
+      <c r="K93" s="18">
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
@@ -3912,13 +3902,13 @@
         <v>40753</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F94" s="13">
         <v>40753</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H94" s="14">
         <v>2.65</v>
@@ -3929,7 +3919,7 @@
       <c r="J94" s="15">
         <v>579282629.90999997</v>
       </c>
-      <c r="K94" s="20">
+      <c r="K94" s="14">
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
@@ -3947,13 +3937,13 @@
         <v>40786</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F95" s="17">
         <v>40786</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H95" s="18">
         <v>2.67</v>
@@ -3964,7 +3954,7 @@
       <c r="J95" s="19">
         <v>584182849.10000002</v>
       </c>
-      <c r="K95" s="21">
+      <c r="K95" s="18">
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
@@ -3982,13 +3972,13 @@
         <v>40816</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F96" s="13">
         <v>40816</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H96" s="14">
         <v>2.7</v>
@@ -3999,7 +3989,7 @@
       <c r="J96" s="15">
         <v>590197964.17999995</v>
       </c>
-      <c r="K96" s="20">
+      <c r="K96" s="14">
         <v>1.09E-2</v>
       </c>
     </row>
@@ -4017,13 +4007,13 @@
         <v>40847</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F97" s="17">
         <v>40847</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H97" s="18">
         <v>2.73</v>
@@ -4034,7 +4024,7 @@
       <c r="J97" s="19">
         <v>594818192.94000006</v>
       </c>
-      <c r="K97" s="21">
+      <c r="K97" s="18">
         <v>9.9000000000000008E-3</v>
       </c>
     </row>
@@ -4052,13 +4042,13 @@
         <v>40877</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F98" s="13">
         <v>40877</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H98" s="14">
         <v>2.75</v>
@@ -4069,7 +4059,7 @@
       <c r="J98" s="15">
         <v>599412327.08000004</v>
       </c>
-      <c r="K98" s="20">
+      <c r="K98" s="14">
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
@@ -4087,13 +4077,13 @@
         <v>40907</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F99" s="17">
         <v>40907</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H99" s="18">
         <v>2.77</v>
@@ -4104,7 +4094,7 @@
       <c r="J99" s="19">
         <v>598562840.88999999</v>
       </c>
-      <c r="K99" s="21">
+      <c r="K99" s="18">
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
@@ -4122,13 +4112,13 @@
         <v>40939</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F100" s="13">
         <v>40939</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H100" s="14">
         <v>2.79</v>
@@ -4139,7 +4129,7 @@
       <c r="J100" s="15">
         <v>601749240.09000003</v>
       </c>
-      <c r="K100" s="20">
+      <c r="K100" s="14">
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
@@ -4157,13 +4147,13 @@
         <v>40968</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F101" s="17">
         <v>40968</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H101" s="18">
         <v>2.81</v>
@@ -4174,7 +4164,7 @@
       <c r="J101" s="19">
         <v>603537869.73000002</v>
       </c>
-      <c r="K101" s="21">
+      <c r="K101" s="18">
         <v>5.3E-3</v>
       </c>
     </row>
@@ -4192,13 +4182,13 @@
         <v>40998</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F102" s="13">
         <v>40998</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H102" s="14">
         <v>2.83</v>
@@ -4209,7 +4199,7 @@
       <c r="J102" s="15">
         <v>607689909.59000003</v>
       </c>
-      <c r="K102" s="20">
+      <c r="K102" s="14">
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
@@ -4227,13 +4217,13 @@
         <v>41029</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F103" s="17">
         <v>41029</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H103" s="18">
         <v>2.86</v>
@@ -4244,7 +4234,7 @@
       <c r="J103" s="19">
         <v>613209099.55999994</v>
       </c>
-      <c r="K103" s="21">
+      <c r="K103" s="18">
         <v>1.15E-2</v>
       </c>
     </row>
@@ -4262,13 +4252,13 @@
         <v>41060</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F104" s="13">
         <v>41060</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H104" s="14">
         <v>2.9</v>
@@ -4279,7 +4269,7 @@
       <c r="J104" s="15">
         <v>618095692.38</v>
       </c>
-      <c r="K104" s="20">
+      <c r="K104" s="14">
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
@@ -4297,13 +4287,13 @@
         <v>41089</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F105" s="17">
         <v>41089</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H105" s="18">
         <v>2.93</v>
@@ -4314,7 +4304,7 @@
       <c r="J105" s="19">
         <v>620720550.38999999</v>
       </c>
-      <c r="K105" s="21">
+      <c r="K105" s="18">
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
@@ -4332,13 +4322,13 @@
         <v>41121</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F106" s="13">
         <v>41121</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H106" s="14">
         <v>2.98</v>
@@ -4349,7 +4339,7 @@
       <c r="J106" s="15">
         <v>626478643.04999995</v>
       </c>
-      <c r="K106" s="20">
+      <c r="K106" s="14">
         <v>1.52E-2</v>
       </c>
     </row>
@@ -4367,13 +4357,13 @@
         <v>41152</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F107" s="17">
         <v>41152</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H107" s="18">
         <v>3.03</v>
@@ -4384,7 +4374,7 @@
       <c r="J107" s="19">
         <v>634004111.88999999</v>
       </c>
-      <c r="K107" s="21">
+      <c r="K107" s="18">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
@@ -4402,13 +4392,13 @@
         <v>41180</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F108" s="13">
         <v>41180</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H108" s="14">
         <v>3.07</v>
@@ -4419,7 +4409,7 @@
       <c r="J108" s="15">
         <v>638293885.91999996</v>
       </c>
-      <c r="K108" s="20">
+      <c r="K108" s="14">
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
@@ -4437,13 +4427,13 @@
         <v>41213</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F109" s="17">
         <v>41213</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H109" s="18">
         <v>3.09</v>
@@ -4454,7 +4444,7 @@
       <c r="J109" s="19">
         <v>639064538.88999999</v>
       </c>
-      <c r="K109" s="21">
+      <c r="K109" s="18">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
@@ -4472,13 +4462,13 @@
         <v>41243</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F110" s="13">
         <v>41243</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H110" s="14">
         <v>3.11</v>
@@ -4489,7 +4479,7 @@
       <c r="J110" s="15">
         <v>639049744.52999997</v>
       </c>
-      <c r="K110" s="20">
+      <c r="K110" s="14">
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
@@ -4507,13 +4497,13 @@
         <v>41274</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F111" s="17">
         <v>41274</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H111" s="18">
         <v>3.14</v>
@@ -4524,7 +4514,7 @@
       <c r="J111" s="19">
         <v>638476942.34000003</v>
       </c>
-      <c r="K111" s="21">
+      <c r="K111" s="18">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
@@ -4542,13 +4532,13 @@
         <v>41305</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F112" s="13">
         <v>41305</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H112" s="14">
         <v>3.17</v>
@@ -4559,7 +4549,7 @@
       <c r="J112" s="15">
         <v>641247792.38999999</v>
       </c>
-      <c r="K112" s="20">
+      <c r="K112" s="14">
         <v>9.7999999999999997E-3</v>
       </c>
     </row>
@@ -4577,13 +4567,13 @@
         <v>41333</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F113" s="17">
         <v>41333</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H113" s="18">
         <v>3.2</v>
@@ -4594,7 +4584,7 @@
       <c r="J113" s="19">
         <v>642519160.49000001</v>
       </c>
-      <c r="K113" s="21">
+      <c r="K113" s="18">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -4612,13 +4602,13 @@
         <v>41361</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F114" s="13">
         <v>41361</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H114" s="14">
         <v>3.22</v>
@@ -4629,7 +4619,7 @@
       <c r="J114" s="15">
         <v>643726856.42999995</v>
       </c>
-      <c r="K114" s="20">
+      <c r="K114" s="14">
         <v>7.6E-3</v>
       </c>
     </row>
@@ -4647,13 +4637,13 @@
         <v>41394</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F115" s="17">
         <v>41394</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H115" s="18">
         <v>3.24</v>
@@ -4664,7 +4654,7 @@
       <c r="J115" s="19">
         <v>644808709.70000005</v>
       </c>
-      <c r="K115" s="21">
+      <c r="K115" s="18">
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
@@ -4682,13 +4672,13 @@
         <v>41425</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F116" s="13">
         <v>41425</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H116" s="14">
         <v>3.26</v>
@@ -4699,7 +4689,7 @@
       <c r="J116" s="15">
         <v>644717398.52999997</v>
       </c>
-      <c r="K116" s="20">
+      <c r="K116" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -4717,13 +4707,13 @@
         <v>41453</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F117" s="17">
         <v>41453</v>
       </c>
       <c r="G117" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H117" s="18">
         <v>3.3</v>
@@ -4734,7 +4724,7 @@
       <c r="J117" s="19">
         <v>647701145.85000002</v>
       </c>
-      <c r="K117" s="21">
+      <c r="K117" s="18">
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
@@ -4752,13 +4742,13 @@
         <v>41486</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F118" s="13">
         <v>41486</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H118" s="14">
         <v>3.33</v>
@@ -4769,7 +4759,7 @@
       <c r="J118" s="15">
         <v>648906148.29999995</v>
       </c>
-      <c r="K118" s="20">
+      <c r="K118" s="14">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -4787,13 +4777,13 @@
         <v>41516</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F119" s="17">
         <v>41516</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H119" s="18">
         <v>3.35</v>
@@ -4804,7 +4794,7 @@
       <c r="J119" s="19">
         <v>649284274.70000005</v>
       </c>
-      <c r="K119" s="21">
+      <c r="K119" s="18">
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
@@ -4822,13 +4812,13 @@
         <v>41547</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F120" s="13">
         <v>41547</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H120" s="14">
         <v>3.4</v>
@@ -4839,7 +4829,7 @@
       <c r="J120" s="15">
         <v>655950823.14999998</v>
       </c>
-      <c r="K120" s="20">
+      <c r="K120" s="14">
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
@@ -4857,13 +4847,13 @@
         <v>41578</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F121" s="17">
         <v>41578</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H121" s="18">
         <v>3.45</v>
@@ -4874,7 +4864,7 @@
       <c r="J121" s="19">
         <v>660780986.00999999</v>
       </c>
-      <c r="K121" s="21">
+      <c r="K121" s="18">
         <v>1.35E-2</v>
       </c>
     </row>
@@ -4892,13 +4882,13 @@
         <v>41607</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F122" s="13">
         <v>41607</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H122" s="14">
         <v>3.48</v>
@@ -4909,7 +4899,7 @@
       <c r="J122" s="15">
         <v>662259731.10000002</v>
       </c>
-      <c r="K122" s="20">
+      <c r="K122" s="14">
         <v>8.3999999999999995E-3</v>
       </c>
     </row>
@@ -4927,13 +4917,13 @@
         <v>41639</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F123" s="17">
         <v>41639</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H123" s="18">
         <v>3.56</v>
@@ -4944,7 +4934,7 @@
       <c r="J123" s="19">
         <v>669493574.41999996</v>
       </c>
-      <c r="K123" s="21">
+      <c r="K123" s="18">
         <v>2.3E-2</v>
       </c>
     </row>
@@ -4962,13 +4952,13 @@
         <v>41670</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F124" s="13">
         <v>41670</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H124" s="14">
         <v>3.6</v>
@@ -4979,7 +4969,7 @@
       <c r="J124" s="15">
         <v>672635744.13</v>
       </c>
-      <c r="K124" s="20">
+      <c r="K124" s="14">
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
@@ -4997,13 +4987,13 @@
         <v>41698</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F125" s="17">
         <v>41698</v>
       </c>
       <c r="G125" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H125" s="18">
         <v>3.63</v>
@@ -5014,7 +5004,7 @@
       <c r="J125" s="19">
         <v>674516981.27999997</v>
       </c>
-      <c r="K125" s="21">
+      <c r="K125" s="18">
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
@@ -5032,13 +5022,13 @@
         <v>41729</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F126" s="13">
         <v>41729</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H126" s="14">
         <v>3.69</v>
@@ -5049,7 +5039,7 @@
       <c r="J126" s="15">
         <v>682615270.59000003</v>
       </c>
-      <c r="K126" s="20">
+      <c r="K126" s="14">
         <v>1.7899999999999999E-2</v>
       </c>
     </row>
@@ -5067,13 +5057,13 @@
         <v>41759</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F127" s="17">
         <v>41759</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H127" s="18">
         <v>3.74</v>
@@ -5084,7 +5074,7 @@
       <c r="J127" s="19">
         <v>687437583.32000005</v>
       </c>
-      <c r="K127" s="21">
+      <c r="K127" s="18">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
@@ -5102,13 +5092,13 @@
         <v>41789</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F128" s="13">
         <v>41789</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H128" s="14">
         <v>3.76</v>
@@ -5119,7 +5109,7 @@
       <c r="J128" s="15">
         <v>686988220.47000003</v>
       </c>
-      <c r="K128" s="20">
+      <c r="K128" s="14">
         <v>5.5999999999999999E-3</v>
       </c>
     </row>
@@ -5137,13 +5127,13 @@
         <v>41820</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F129" s="17">
         <v>41820</v>
       </c>
       <c r="G129" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H129" s="18">
         <v>3.76</v>
@@ -5154,7 +5144,7 @@
       <c r="J129" s="19">
         <v>682786473.97000003</v>
       </c>
-      <c r="K129" s="21">
+      <c r="K129" s="18">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
@@ -5172,13 +5162,13 @@
         <v>41851</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F130" s="13">
         <v>41851</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H130" s="14">
         <v>3.77</v>
@@ -5189,7 +5179,7 @@
       <c r="J130" s="15">
         <v>679397043.53999996</v>
       </c>
-      <c r="K130" s="20">
+      <c r="K130" s="14">
         <v>1.4E-3</v>
       </c>
     </row>
@@ -5207,13 +5197,13 @@
         <v>41880</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F131" s="17">
         <v>41880</v>
       </c>
       <c r="G131" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H131" s="18">
         <v>3.78</v>
@@ -5224,7 +5214,7 @@
       <c r="J131" s="19">
         <v>677005263.97000003</v>
       </c>
-      <c r="K131" s="21">
+      <c r="K131" s="18">
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
@@ -5242,13 +5232,13 @@
         <v>41912</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F132" s="13">
         <v>41912</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H132" s="14">
         <v>3.81</v>
@@ -5259,7 +5249,7 @@
       <c r="J132" s="15">
         <v>677528139.44000006</v>
       </c>
-      <c r="K132" s="20">
+      <c r="K132" s="14">
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
@@ -5277,13 +5267,13 @@
         <v>41943</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F133" s="17">
         <v>41943</v>
       </c>
       <c r="G133" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H133" s="18">
         <v>3.84</v>
@@ -5294,7 +5284,7 @@
       <c r="J133" s="19">
         <v>679053295.57000005</v>
       </c>
-      <c r="K133" s="21">
+      <c r="K133" s="18">
         <v>8.6E-3</v>
       </c>
     </row>
@@ -5312,13 +5302,13 @@
         <v>41971</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F134" s="13">
         <v>41971</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H134" s="14">
         <v>3.88</v>
@@ -5329,7 +5319,7 @@
       <c r="J134" s="15">
         <v>682919700.69000006</v>
       </c>
-      <c r="K134" s="20">
+      <c r="K134" s="14">
         <v>1.21E-2</v>
       </c>
     </row>
@@ -5347,13 +5337,13 @@
         <v>42004</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F135" s="17">
         <v>42004</v>
       </c>
       <c r="G135" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H135" s="18">
         <v>3.93</v>
@@ -5364,7 +5354,7 @@
       <c r="J135" s="19">
         <v>690597672.59000003</v>
       </c>
-      <c r="K135" s="21">
+      <c r="K135" s="18">
         <v>1.12E-2</v>
       </c>
     </row>
@@ -5382,13 +5372,13 @@
         <v>42034</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F136" s="13">
         <v>42034</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H136" s="14">
         <v>3.98</v>
@@ -5399,7 +5389,7 @@
       <c r="J136" s="15">
         <v>694767704.91999996</v>
       </c>
-      <c r="K136" s="20">
+      <c r="K136" s="14">
         <v>1.24E-2</v>
       </c>
     </row>
@@ -5417,13 +5407,13 @@
         <v>42062</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F137" s="17">
         <v>42062</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H137" s="18">
         <v>4.01</v>
@@ -5434,7 +5424,7 @@
       <c r="J137" s="19">
         <v>696504937.13999999</v>
       </c>
-      <c r="K137" s="21">
+      <c r="K137" s="18">
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
@@ -5452,13 +5442,13 @@
         <v>42094</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F138" s="13">
         <v>42094</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H138" s="14">
         <v>4.07</v>
@@ -5469,7 +5459,7 @@
       <c r="J138" s="15">
         <v>702942357.77999997</v>
       </c>
-      <c r="K138" s="20">
+      <c r="K138" s="14">
         <v>1.54E-2</v>
       </c>
     </row>
@@ -5487,13 +5477,13 @@
         <v>42124</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F139" s="17">
         <v>42124</v>
       </c>
       <c r="G139" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H139" s="18">
         <v>4.1399999999999997</v>
@@ -5504,7 +5494,7 @@
       <c r="J139" s="19">
         <v>713417588.24000001</v>
       </c>
-      <c r="K139" s="21">
+      <c r="K139" s="18">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
@@ -5522,13 +5512,13 @@
         <v>42153</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F140" s="13">
         <v>42153</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H140" s="14">
         <v>4.18</v>
@@ -5539,7 +5529,7 @@
       <c r="J140" s="15">
         <v>715722700.89999998</v>
       </c>
-      <c r="K140" s="20">
+      <c r="K140" s="14">
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
@@ -5557,13 +5547,13 @@
         <v>42185</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F141" s="17">
         <v>42185</v>
       </c>
       <c r="G141" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H141" s="18">
         <v>4.2300000000000004</v>
@@ -5574,7 +5564,7 @@
       <c r="J141" s="19">
         <v>719783333.86000001</v>
       </c>
-      <c r="K141" s="21">
+      <c r="K141" s="18">
         <v>1.18E-2</v>
       </c>
     </row>
@@ -5592,13 +5582,13 @@
         <v>42216</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F142" s="13">
         <v>42216</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H142" s="14">
         <v>4.28</v>
@@ -5609,7 +5599,7 @@
       <c r="J142" s="15">
         <v>723566993.84000003</v>
       </c>
-      <c r="K142" s="20">
+      <c r="K142" s="14">
         <v>1.1900000000000001E-2</v>
       </c>
     </row>
@@ -5627,13 +5617,13 @@
         <v>42247</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F143" s="17">
         <v>42247</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H143" s="18">
         <v>4.32</v>
@@ -5644,7 +5634,7 @@
       <c r="J143" s="19">
         <v>725083163.73000002</v>
       </c>
-      <c r="K143" s="21">
+      <c r="K143" s="18">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
@@ -5662,13 +5652,13 @@
         <v>42277</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F144" s="13">
         <v>42277</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H144" s="14">
         <v>4.37</v>
@@ -5679,7 +5669,7 @@
       <c r="J144" s="15">
         <v>729185758.71000004</v>
       </c>
-      <c r="K144" s="20">
+      <c r="K144" s="14">
         <v>1.17E-2</v>
       </c>
     </row>
@@ -5697,13 +5687,13 @@
         <v>42307</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F145" s="17">
         <v>42307</v>
       </c>
       <c r="G145" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H145" s="18">
         <v>4.45</v>
@@ -5714,7 +5704,7 @@
       <c r="J145" s="19">
         <v>738239795.45000005</v>
       </c>
-      <c r="K145" s="21">
+      <c r="K145" s="18">
         <v>1.84E-2</v>
       </c>
     </row>
@@ -5732,13 +5722,13 @@
         <v>42338</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F146" s="13">
         <v>42338</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H146" s="14">
         <v>4.5199999999999996</v>
@@ -5749,7 +5739,7 @@
       <c r="J146" s="15">
         <v>746352935.14999998</v>
       </c>
-      <c r="K146" s="20">
+      <c r="K146" s="14">
         <v>1.6899999999999998E-2</v>
       </c>
     </row>
@@ -5767,13 +5757,13 @@
         <v>42369</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F147" s="17">
         <v>42369</v>
       </c>
       <c r="G147" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H147" s="18">
         <v>4.58</v>
@@ -5784,7 +5774,7 @@
       <c r="J147" s="19">
         <v>746429743.61000001</v>
       </c>
-      <c r="K147" s="21">
+      <c r="K147" s="18">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -5802,13 +5792,13 @@
         <v>42398</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F148" s="13">
         <v>42398</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H148" s="14">
         <v>4.6500000000000004</v>
@@ -5819,7 +5809,7 @@
       <c r="J148" s="15">
         <v>753049381.63999999</v>
       </c>
-      <c r="K148" s="20">
+      <c r="K148" s="14">
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
@@ -5837,13 +5827,13 @@
         <v>42429</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F149" s="17">
         <v>42429</v>
       </c>
       <c r="G149" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H149" s="18">
         <v>4.72</v>
@@ -5854,7 +5844,7 @@
       <c r="J149" s="19">
         <v>760866870.67999995</v>
       </c>
-      <c r="K149" s="21">
+      <c r="K149" s="18">
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
@@ -5872,13 +5862,13 @@
         <v>42460</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F150" s="13">
         <v>42460</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H150" s="14">
         <v>4.7699999999999996</v>
@@ -5889,7 +5879,7 @@
       <c r="J150" s="15">
         <v>764692034.70000005</v>
       </c>
-      <c r="K150" s="20">
+      <c r="K150" s="14">
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
@@ -5907,13 +5897,13 @@
         <v>42489</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F151" s="17">
         <v>42489</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H151" s="18">
         <v>4.8099999999999996</v>
@@ -5924,7 +5914,7 @@
       <c r="J151" s="19">
         <v>765702161.75</v>
       </c>
-      <c r="K151" s="21">
+      <c r="K151" s="18">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
@@ -5942,13 +5932,13 @@
         <v>42521</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F152" s="13">
         <v>42521</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H152" s="14">
         <v>4.87</v>
@@ -5959,7 +5949,7 @@
       <c r="J152" s="15">
         <v>770108589.27999997</v>
       </c>
-      <c r="K152" s="20">
+      <c r="K152" s="14">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -5977,13 +5967,13 @@
         <v>42551</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F153" s="17">
         <v>42551</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H153" s="18">
         <v>4.95</v>
@@ -5994,7 +5984,7 @@
       <c r="J153" s="19">
         <v>778527876.73000002</v>
       </c>
-      <c r="K153" s="21">
+      <c r="K153" s="18">
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
@@ -6012,13 +6002,13 @@
         <v>42580</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F154" s="13">
         <v>42580</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H154" s="14">
         <v>4.99</v>
@@ -6029,7 +6019,7 @@
       <c r="J154" s="15">
         <v>779576604.35000002</v>
       </c>
-      <c r="K154" s="20">
+      <c r="K154" s="14">
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
@@ -6047,13 +6037,13 @@
         <v>42613</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F155" s="17">
         <v>42613</v>
       </c>
       <c r="G155" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H155" s="18">
         <v>5.03</v>
@@ -6064,7 +6054,7 @@
       <c r="J155" s="19">
         <v>780996658.57000005</v>
       </c>
-      <c r="K155" s="21">
+      <c r="K155" s="18">
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
@@ -6082,13 +6072,13 @@
         <v>42643</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F156" s="13">
         <v>42643</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H156" s="14">
         <v>5.07</v>
@@ -6099,7 +6089,7 @@
       <c r="J156" s="15">
         <v>781098973.38999999</v>
       </c>
-      <c r="K156" s="20">
+      <c r="K156" s="14">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
@@ -6117,13 +6107,13 @@
         <v>42674</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F157" s="17">
         <v>42674</v>
       </c>
       <c r="G157" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H157" s="18">
         <v>5.0999999999999996</v>
@@ -6134,7 +6124,7 @@
       <c r="J157" s="19">
         <v>780806434.39999998</v>
       </c>
-      <c r="K157" s="21">
+      <c r="K157" s="18">
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
@@ -6152,13 +6142,13 @@
         <v>42704</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F158" s="13">
         <v>42704</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H158" s="14">
         <v>5.12</v>
@@ -6169,7 +6159,7 @@
       <c r="J158" s="15">
         <v>779956101.21000004</v>
       </c>
-      <c r="K158" s="20">
+      <c r="K158" s="14">
         <v>5.3E-3</v>
       </c>
     </row>
@@ -6187,13 +6177,13 @@
         <v>42734</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F159" s="17">
         <v>42734</v>
       </c>
       <c r="G159" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H159" s="18">
         <v>5.17</v>
@@ -6204,7 +6194,7 @@
       <c r="J159" s="19">
         <v>776839596.91999996</v>
       </c>
-      <c r="K159" s="21">
+      <c r="K159" s="18">
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
@@ -6218,8 +6208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B181FF2-3E3E-49C1-9792-85EF5BAF34F6}">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6243,25 +6233,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6275,7 +6265,7 @@
         <v>1E-4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7">
         <v>40389</v>
@@ -6304,7 +6294,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="10">
         <v>40421</v>
@@ -6333,7 +6323,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7">
         <v>40451</v>
@@ -6362,7 +6352,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="10">
         <v>40480</v>
@@ -6391,7 +6381,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="7">
         <v>40512</v>
@@ -6420,7 +6410,7 @@
         <v>6.3E-3</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="10">
         <v>40543</v>
@@ -6449,7 +6439,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="7">
         <v>40574</v>
@@ -6478,7 +6468,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="10">
         <v>40602</v>
@@ -6507,7 +6497,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="7">
         <v>40633</v>
@@ -6536,7 +6526,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="10">
         <v>40662</v>
@@ -6565,7 +6555,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="7">
         <v>40694</v>
@@ -6594,7 +6584,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="10">
         <v>40724</v>
@@ -6623,7 +6613,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="7">
         <v>40753</v>
@@ -6652,7 +6642,7 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="10">
         <v>40786</v>
@@ -6681,7 +6671,7 @@
         <v>5.3E-3</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="7">
         <v>40816</v>
@@ -6710,7 +6700,7 @@
         <v>4.3E-3</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="10">
         <v>40847</v>
@@ -6739,7 +6729,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="7">
         <v>40877</v>
@@ -6768,7 +6758,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="10">
         <v>40907</v>
@@ -6797,7 +6787,7 @@
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="7">
         <v>40939</v>
@@ -6826,7 +6816,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="10">
         <v>40968</v>
@@ -6855,7 +6845,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="7">
         <v>40998</v>
@@ -6884,7 +6874,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="10">
         <v>41029</v>
@@ -6913,7 +6903,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="7">
         <v>41060</v>
@@ -6942,7 +6932,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="10">
         <v>41089</v>
@@ -6971,7 +6961,7 @@
         <v>4.3E-3</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="7">
         <v>41121</v>
@@ -7000,7 +6990,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="10">
         <v>41152</v>
@@ -7029,7 +7019,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="7">
         <v>41180</v>
@@ -7058,7 +7048,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29" s="10">
         <v>41213</v>
@@ -7087,7 +7077,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E30" s="7">
         <v>41243</v>
@@ -7116,7 +7106,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E31" s="10">
         <v>41274</v>
@@ -7145,7 +7135,7 @@
         <v>8.6E-3</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E32" s="7">
         <v>41305</v>
@@ -7174,7 +7164,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E33" s="10">
         <v>41333</v>
@@ -7203,7 +7193,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E34" s="7">
         <v>41361</v>
@@ -7232,7 +7222,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E35" s="10">
         <v>41394</v>
@@ -7261,7 +7251,7 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E36" s="7">
         <v>41425</v>
@@ -7290,7 +7280,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E37" s="10">
         <v>41453</v>
@@ -7319,7 +7309,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E38" s="7">
         <v>41486</v>
@@ -7348,7 +7338,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E39" s="10">
         <v>41516</v>
@@ -7377,7 +7367,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E40" s="7">
         <v>41547</v>
@@ -7406,7 +7396,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E41" s="10">
         <v>41578</v>
@@ -7435,7 +7425,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E42" s="7">
         <v>41607</v>
@@ -7464,7 +7454,7 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E43" s="10">
         <v>41639</v>
@@ -7493,7 +7483,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E44" s="7">
         <v>41670</v>
@@ -7522,7 +7512,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E45" s="10">
         <v>41698</v>
@@ -7551,7 +7541,7 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E46" s="7">
         <v>41729</v>
@@ -7580,7 +7570,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E47" s="10">
         <v>41759</v>
@@ -7609,7 +7599,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E48" s="7">
         <v>41789</v>
@@ -7638,7 +7628,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E49" s="10">
         <v>41820</v>
@@ -7667,7 +7657,7 @@
         <v>1E-4</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E50" s="7">
         <v>41851</v>
@@ -7696,7 +7686,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E51" s="10">
         <v>41880</v>
@@ -7725,7 +7715,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E52" s="7">
         <v>41912</v>
@@ -7754,7 +7744,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E53" s="10">
         <v>41943</v>
@@ -7783,7 +7773,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E54" s="7">
         <v>41971</v>
@@ -7812,7 +7802,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E55" s="10">
         <v>42004</v>
@@ -7841,7 +7831,7 @@
         <v>1.24E-2</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E56" s="7">
         <v>42034</v>
@@ -7870,7 +7860,7 @@
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E57" s="10">
         <v>42062</v>
@@ -7899,7 +7889,7 @@
         <v>1.32E-2</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E58" s="7">
         <v>42094</v>
@@ -7928,7 +7918,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E59" s="10">
         <v>42124</v>
@@ -7957,7 +7947,7 @@
         <v>7.4000000000000003E-3</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E60" s="7">
         <v>42153</v>
@@ -7986,7 +7976,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E61" s="10">
         <v>42185</v>
@@ -8015,7 +8005,7 @@
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E62" s="7">
         <v>42216</v>
@@ -8044,7 +8034,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E63" s="10">
         <v>42247</v>
@@ -8073,7 +8063,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E64" s="7">
         <v>42277</v>
@@ -8102,7 +8092,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E65" s="10">
         <v>42307</v>
@@ -8131,7 +8121,7 @@
         <v>1.01E-2</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E66" s="7">
         <v>42338</v>
@@ -8160,7 +8150,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E67" s="10">
         <v>42369</v>
@@ -8189,7 +8179,7 @@
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E68" s="7">
         <v>42398</v>
@@ -8218,7 +8208,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E69" s="10">
         <v>42429</v>
@@ -8247,7 +8237,7 @@
         <v>4.3E-3</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E70" s="7">
         <v>42460</v>
@@ -8276,7 +8266,7 @@
         <v>6.1000000000000004E-3</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E71" s="10">
         <v>42489</v>
@@ -8305,7 +8295,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E72" s="7">
         <v>42521</v>
@@ -8334,7 +8324,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E73" s="10">
         <v>42551</v>
@@ -8363,7 +8353,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E74" s="7">
         <v>42580</v>
@@ -8392,7 +8382,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E75" s="10">
         <v>42613</v>
@@ -8421,7 +8411,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E76" s="7">
         <v>42643</v>
@@ -8450,7 +8440,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E77" s="10">
         <v>42674</v>
@@ -8479,7 +8469,7 @@
         <v>1.8E-3</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E78" s="7">
         <v>42704</v>
@@ -8508,7 +8498,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E79" s="10">
         <v>42734</v>
